--- a/posesiones/1486008.xlsx
+++ b/posesiones/1486008.xlsx
@@ -2168,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>11</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>4</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>9</v>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>19</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>10</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>15</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>27</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>10</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>6</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>14</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>16</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>35</v>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>3</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>15</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>7</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>7</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>9</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>16</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>10</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>21</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>7</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>22</v>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>5</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>19</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>7</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>5</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R92">
         <v>15</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R96">
         <v>16</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R98">
         <v>4</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R104">
         <v>21</v>
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7620,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>18</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>18</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7929,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R119">
         <v>7</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R121">
         <v>20</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R123">
         <v>10</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R125">
         <v>15</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R127">
         <v>20</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8438,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R129">
         <v>12</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8529,10 +8529,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8573,10 +8573,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>10</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R135">
         <v>11</v>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R137">
         <v>20</v>
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R138">
         <v>21</v>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R139">
         <v>16</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R141">
         <v>19</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R150">
         <v>14</v>
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R151">
         <v>17</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R157">
         <v>20</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R163">
         <v>29</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10193,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R165">
         <v>5</v>
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R166">
         <v>20</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R168">
         <v>24</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10446,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>16</v>
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R171">
         <v>23</v>
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R175">
         <v>26</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R186">
         <v>23</v>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R190">
         <v>25</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R192">
         <v>4</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11854,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R201">
         <v>51</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -12057,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R203">
         <v>22</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R205">
         <v>6</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R207">
         <v>9</v>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12366,7 +12366,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R209">
         <v>4</v>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12463,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12607,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R221">
         <v>25</v>
@@ -12995,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R222">
         <v>15</v>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13236,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>6</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13377,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13427,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R231">
         <v>20</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13527,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R233">
         <v>19</v>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13627,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R235">
         <v>26</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13727,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13774,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13871,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R240">
         <v>0</v>
@@ -13924,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R241">
         <v>16</v>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -14027,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>6</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -14124,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14221,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R247">
         <v>16</v>
@@ -14274,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14324,7 +14324,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R249">
         <v>15</v>
@@ -14368,10 +14368,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14788,10 +14788,10 @@
         <v>1</v>
       </c>
       <c r="P259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14838,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14935,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R262">
         <v>27</v>
@@ -14988,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R263">
         <v>9</v>
@@ -15041,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R264">
         <v>14</v>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -15144,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R266">
         <v>13</v>
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R268">
         <v>16</v>
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15394,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R274">
         <v>7</v>
@@ -15591,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R275">
         <v>18</v>
@@ -15641,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R279">
         <v>26</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15888,7 +15888,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R281">
         <v>9</v>
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15988,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -16088,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R285">
         <v>23</v>
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -16185,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16232,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16279,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16329,7 +16329,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R290">
         <v>2</v>
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>18</v>
@@ -16529,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16579,7 +16579,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R295">
         <v>19</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16679,7 +16679,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R297">
         <v>18</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R298">
         <v>16</v>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16835,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R300">
         <v>8</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -17029,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -17076,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -17126,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R306">
         <v>16</v>
@@ -17179,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R307">
         <v>6</v>
@@ -17229,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17279,7 +17279,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R309">
         <v>4</v>
@@ -17332,7 +17332,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R310">
         <v>6</v>
@@ -17382,7 +17382,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17432,7 +17432,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R312">
         <v>12</v>
@@ -17482,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17532,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R314">
         <v>5</v>
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17726,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R318">
         <v>22</v>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R320">
         <v>10</v>
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17976,7 +17976,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R323">
         <v>0</v>
@@ -18029,7 +18029,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R324">
         <v>10</v>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -18126,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R328">
         <v>0</v>
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R335">
         <v>16</v>
@@ -18614,7 +18614,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R336">
         <v>20</v>
@@ -18667,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R338">
         <v>11</v>
@@ -18770,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18917,7 +18917,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R342">
         <v>27</v>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -19061,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -19155,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19202,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19249,7 +19249,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19346,7 +19346,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R351">
         <v>15</v>
@@ -19399,7 +19399,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R352">
         <v>19</v>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19499,7 +19499,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>6</v>
@@ -19549,7 +19549,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19596,7 +19596,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19693,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R358">
         <v>0</v>
@@ -19746,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19840,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -20031,7 +20031,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R365">
         <v>8</v>
@@ -20084,7 +20084,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -20134,7 +20134,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R367">
         <v>10</v>
@@ -20184,7 +20184,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20231,7 +20231,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20328,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20375,7 +20375,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20469,7 +20469,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20516,7 +20516,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20566,7 +20566,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R376">
         <v>21</v>
@@ -20616,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20666,7 +20666,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R378">
         <v>24</v>
@@ -20716,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20766,7 +20766,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R380">
         <v>20</v>
@@ -20819,7 +20819,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20869,7 +20869,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R382">
         <v>13</v>
@@ -20922,7 +20922,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R383">
         <v>10</v>
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R385">
         <v>23</v>
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R386">
         <v>20</v>
@@ -21128,7 +21128,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -21169,10 +21169,10 @@
         <v>1</v>
       </c>
       <c r="P388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q388">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -21213,10 +21213,10 @@
         <v>1</v>
       </c>
       <c r="P389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q389">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21313,7 +21313,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21460,7 +21460,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R394">
         <v>32</v>
@@ -21510,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21560,7 +21560,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R396">
         <v>31</v>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21660,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21710,7 +21710,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R399">
         <v>5</v>
@@ -21760,7 +21760,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21810,7 +21810,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R401">
         <v>11</v>
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21910,7 +21910,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R403">
         <v>18</v>
@@ -21960,7 +21960,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -22010,7 +22010,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R405">
         <v>20</v>
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -22110,7 +22110,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R407">
         <v>8</v>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22254,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22351,7 +22351,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R412">
         <v>14</v>
@@ -22401,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22495,7 +22495,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22545,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22595,7 +22595,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R417">
         <v>28</v>
@@ -22648,7 +22648,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R418">
         <v>10</v>
@@ -22701,7 +22701,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R419">
         <v>12</v>
@@ -22751,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22842,7 +22842,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22939,7 +22939,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R424">
         <v>22</v>
@@ -22992,7 +22992,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R425">
         <v>23</v>
@@ -23045,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -23139,7 +23139,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23280,7 +23280,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23327,7 +23327,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23377,7 +23377,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R433">
         <v>12</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23480,7 +23480,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R435">
         <v>22</v>
@@ -23530,7 +23530,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23580,7 +23580,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R437">
         <v>21</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23680,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23730,7 +23730,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R440">
         <v>3</v>
@@ -23783,7 +23783,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R441">
         <v>17</v>
@@ -23836,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23886,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R443">
         <v>1</v>
@@ -23936,7 +23936,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -24033,7 +24033,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R446">
         <v>10</v>
@@ -24086,7 +24086,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R448">
         <v>11</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24236,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24283,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24427,7 +24427,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R454">
         <v>16</v>
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24571,7 +24571,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24621,7 +24621,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R458">
         <v>0</v>
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24718,7 +24718,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R460">
         <v>16</v>
@@ -24771,7 +24771,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24862,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24959,7 +24959,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R465">
         <v>23</v>
@@ -25012,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -25062,7 +25062,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R467">
         <v>4</v>
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -25162,7 +25162,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R469">
         <v>20</v>
@@ -25215,7 +25215,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25312,7 +25312,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R472">
         <v>16</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25550,7 +25550,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25603,7 +25603,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R478">
         <v>11</v>
@@ -25653,7 +25653,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R480">
         <v>22</v>
@@ -25756,7 +25756,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R481">
         <v>14</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25853,7 +25853,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25900,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R485">
         <v>25</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -26094,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -26141,7 +26141,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -26191,7 +26191,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R490">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26288,7 +26288,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26338,7 +26338,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R493">
         <v>19</v>
@@ -26391,7 +26391,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26441,7 +26441,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R495">
         <v>14</v>
@@ -26491,7 +26491,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26538,7 +26538,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26682,7 +26682,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R500">
         <v>4</v>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26826,7 +26826,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26873,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26967,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -27017,7 +27017,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R507">
         <v>15</v>
@@ -27064,7 +27064,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -27111,7 +27111,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -27158,7 +27158,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -27205,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27255,7 +27255,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R512">
         <v>18</v>
@@ -27308,7 +27308,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27358,7 +27358,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R514">
         <v>16</v>
@@ -27408,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27452,7 +27452,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27499,7 +27499,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27640,7 +27640,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27687,7 +27687,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27781,7 +27781,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27831,7 +27831,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R524">
         <v>3</v>
@@ -27878,7 +27878,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27928,7 +27928,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R526">
         <v>7</v>
@@ -27978,7 +27978,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -28028,7 +28028,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R528">
         <v>4</v>
@@ -28072,10 +28072,10 @@
         <v>1</v>
       </c>
       <c r="P529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q529">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -28116,10 +28116,10 @@
         <v>1</v>
       </c>
       <c r="P530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q530">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="R531">
         <v>20</v>
@@ -28222,7 +28222,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28272,7 +28272,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R533">
         <v>24</v>
@@ -28322,7 +28322,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28469,7 +28469,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R537">
         <v>20</v>
@@ -28522,7 +28522,7 @@
         <v>1</v>
       </c>
       <c r="Q538">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R538">
         <v>15</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28625,7 +28625,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R540">
         <v>11</v>
@@ -28675,7 +28675,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28725,7 +28725,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R542">
         <v>20</v>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28828,7 +28828,7 @@
         <v>1</v>
       </c>
       <c r="Q544">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R544">
         <v>14</v>
@@ -28878,7 +28878,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -29066,7 +29066,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -29116,7 +29116,7 @@
         <v>1</v>
       </c>
       <c r="Q550">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R550">
         <v>0</v>
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -29219,7 +29219,7 @@
         <v>1</v>
       </c>
       <c r="Q552">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="R552">
         <v>15</v>
@@ -29269,7 +29269,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -29316,7 +29316,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="Q555">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R555">
         <v>0</v>
@@ -29419,7 +29419,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29516,7 +29516,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29566,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="Q559">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R559">
         <v>22</v>
@@ -29619,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29669,7 +29669,7 @@
         <v>1</v>
       </c>
       <c r="Q561">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R561">
         <v>15</v>
@@ -29719,7 +29719,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29769,7 +29769,7 @@
         <v>1</v>
       </c>
       <c r="Q563">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="R563">
         <v>25</v>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29872,7 +29872,7 @@
         <v>1</v>
       </c>
       <c r="Q565">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="R565">
         <v>17</v>
@@ -29922,7 +29922,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29969,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -30066,7 +30066,7 @@
         <v>1</v>
       </c>
       <c r="Q569">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="R569">
         <v>19</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="Q570">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -30163,7 +30163,7 @@
         <v>1</v>
       </c>
       <c r="Q571">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="R571">
         <v>28</v>
@@ -30216,7 +30216,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -30310,7 +30310,7 @@
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -30357,7 +30357,7 @@
         <v>0</v>
       </c>
       <c r="Q575">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -30407,7 +30407,7 @@
         <v>1</v>
       </c>
       <c r="Q576">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="R576">
         <v>2</v>
@@ -30460,7 +30460,7 @@
         <v>1</v>
       </c>
       <c r="Q577">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="R577">
         <v>9</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="Q578">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -30560,7 +30560,7 @@
         <v>1</v>
       </c>
       <c r="Q579">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="R579">
         <v>20</v>
@@ -30604,10 +30604,10 @@
         <v>1</v>
       </c>
       <c r="P580" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q580">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="581" spans="1:18">
@@ -30648,10 +30648,10 @@
         <v>1</v>
       </c>
       <c r="P581" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q581">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="582" spans="1:18">
@@ -30701,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="Q582">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="R582">
         <v>17</v>
@@ -30754,7 +30754,7 @@
         <v>1</v>
       </c>
       <c r="Q583">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="R583">
         <v>22</v>
@@ -30807,7 +30807,7 @@
         <v>0</v>
       </c>
       <c r="Q584">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="585" spans="1:18">
@@ -30857,7 +30857,7 @@
         <v>1</v>
       </c>
       <c r="Q585">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="R585">
         <v>5</v>
@@ -30910,7 +30910,7 @@
         <v>1</v>
       </c>
       <c r="Q586">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="R586">
         <v>17</v>
@@ -30963,7 +30963,7 @@
         <v>1</v>
       </c>
       <c r="Q587">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="R587">
         <v>27</v>
@@ -31016,7 +31016,7 @@
         <v>0</v>
       </c>
       <c r="Q588">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="589" spans="1:18">
@@ -31066,7 +31066,7 @@
         <v>1</v>
       </c>
       <c r="Q589">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="R589">
         <v>11</v>
@@ -31116,7 +31116,7 @@
         <v>0</v>
       </c>
       <c r="Q590">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="591" spans="1:18">
@@ -31166,7 +31166,7 @@
         <v>1</v>
       </c>
       <c r="Q591">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="R591">
         <v>19</v>
@@ -31216,7 +31216,7 @@
         <v>0</v>
       </c>
       <c r="Q592">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="593" spans="1:18">
@@ -31263,7 +31263,7 @@
         <v>0</v>
       </c>
       <c r="Q593">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="594" spans="1:18">
@@ -31310,7 +31310,7 @@
         <v>0</v>
       </c>
       <c r="Q594">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="595" spans="1:18">
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="Q595">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="596" spans="1:18">
@@ -31404,7 +31404,7 @@
         <v>0</v>
       </c>
       <c r="Q596">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="597" spans="1:18">
@@ -31451,7 +31451,7 @@
         <v>0</v>
       </c>
       <c r="Q597">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="598" spans="1:18">
@@ -31501,7 +31501,7 @@
         <v>1</v>
       </c>
       <c r="Q598">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="R598">
         <v>3</v>
@@ -31554,7 +31554,7 @@
         <v>1</v>
       </c>
       <c r="Q599">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="R599">
         <v>10</v>
@@ -31604,7 +31604,7 @@
         <v>0</v>
       </c>
       <c r="Q600">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="601" spans="1:18">
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
       <c r="Q601">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="R601">
         <v>4</v>
@@ -31701,7 +31701,7 @@
         <v>0</v>
       </c>
       <c r="Q602">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="603" spans="1:18">
@@ -31751,7 +31751,7 @@
         <v>1</v>
       </c>
       <c r="Q603">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="R603">
         <v>20</v>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="Q604">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="605" spans="1:18">
@@ -31854,7 +31854,7 @@
         <v>1</v>
       </c>
       <c r="Q605">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="R605">
         <v>20</v>
@@ -31904,7 +31904,7 @@
         <v>0</v>
       </c>
       <c r="Q606">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="607" spans="1:18">
@@ -31951,7 +31951,7 @@
         <v>0</v>
       </c>
       <c r="Q607">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="608" spans="1:18">
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="Q608">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="609" spans="1:18">
@@ -32051,7 +32051,7 @@
         <v>1</v>
       </c>
       <c r="Q609">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="R609">
         <v>20</v>
@@ -32101,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="Q610">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="611" spans="1:18">
@@ -32151,7 +32151,7 @@
         <v>0</v>
       </c>
       <c r="Q611">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="612" spans="1:18">
@@ -32201,7 +32201,7 @@
         <v>1</v>
       </c>
       <c r="Q612">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="R612">
         <v>6</v>
@@ -32251,7 +32251,7 @@
         <v>0</v>
       </c>
       <c r="Q613">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="614" spans="1:18">
@@ -32298,7 +32298,7 @@
         <v>0</v>
       </c>
       <c r="Q614">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="615" spans="1:18">
@@ -32345,7 +32345,7 @@
         <v>0</v>
       </c>
       <c r="Q615">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="616" spans="1:18">
@@ -32392,7 +32392,7 @@
         <v>0</v>
       </c>
       <c r="Q616">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="617" spans="1:18">
@@ -32442,7 +32442,7 @@
         <v>1</v>
       </c>
       <c r="Q617">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="R617">
         <v>7</v>
@@ -32495,7 +32495,7 @@
         <v>0</v>
       </c>
       <c r="Q618">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="619" spans="1:18">
@@ -32545,7 +32545,7 @@
         <v>1</v>
       </c>
       <c r="Q619">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="R619">
         <v>16</v>
@@ -32595,7 +32595,7 @@
         <v>0</v>
       </c>
       <c r="Q620">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="621" spans="1:18">
@@ -32645,7 +32645,7 @@
         <v>1</v>
       </c>
       <c r="Q621">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="R621">
         <v>15</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="Q622">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="623" spans="1:18">
@@ -32748,7 +32748,7 @@
         <v>1</v>
       </c>
       <c r="Q623">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="R623">
         <v>18</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="Q624">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="625" spans="1:18">
@@ -32845,7 +32845,7 @@
         <v>0</v>
       </c>
       <c r="Q625">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="626" spans="1:18">
@@ -32892,7 +32892,7 @@
         <v>0</v>
       </c>
       <c r="Q626">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="627" spans="1:18">
@@ -32939,7 +32939,7 @@
         <v>0</v>
       </c>
       <c r="Q627">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="628" spans="1:18">
@@ -32986,7 +32986,7 @@
         <v>0</v>
       </c>
       <c r="Q628">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="629" spans="1:18">
@@ -33033,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="Q629">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="630" spans="1:18">
@@ -33083,7 +33083,7 @@
         <v>1</v>
       </c>
       <c r="Q630">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="R630">
         <v>4</v>
@@ -33136,7 +33136,7 @@
         <v>1</v>
       </c>
       <c r="Q631">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="R631">
         <v>8</v>
@@ -33189,7 +33189,7 @@
         <v>0</v>
       </c>
       <c r="Q632">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="633" spans="1:18">
@@ -33239,7 +33239,7 @@
         <v>1</v>
       </c>
       <c r="Q633">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="R633">
         <v>11</v>
@@ -33292,7 +33292,7 @@
         <v>0</v>
       </c>
       <c r="Q634">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="635" spans="1:18">
@@ -33339,7 +33339,7 @@
         <v>0</v>
       </c>
       <c r="Q635">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="636" spans="1:18">
@@ -33386,7 +33386,7 @@
         <v>0</v>
       </c>
       <c r="Q636">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="637" spans="1:18">
@@ -33433,7 +33433,7 @@
         <v>0</v>
       </c>
       <c r="Q637">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="638" spans="1:18">
@@ -33480,7 +33480,7 @@
         <v>0</v>
       </c>
       <c r="Q638">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="639" spans="1:18">
@@ -33527,7 +33527,7 @@
         <v>0</v>
       </c>
       <c r="Q639">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="640" spans="1:18">
@@ -33577,7 +33577,7 @@
         <v>1</v>
       </c>
       <c r="Q640">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="R640">
         <v>9</v>
@@ -33627,7 +33627,7 @@
         <v>0</v>
       </c>
       <c r="Q641">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="642" spans="1:18">
@@ -33674,7 +33674,7 @@
         <v>0</v>
       </c>
       <c r="Q642">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="643" spans="1:18">
@@ -33721,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="Q643">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="644" spans="1:18">
@@ -33771,7 +33771,7 @@
         <v>0</v>
       </c>
       <c r="Q644">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="645" spans="1:18">
@@ -33821,7 +33821,7 @@
         <v>1</v>
       </c>
       <c r="Q645">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="R645">
         <v>7</v>
@@ -33865,10 +33865,10 @@
         <v>1</v>
       </c>
       <c r="P646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q646">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="647" spans="1:18">
@@ -33909,7 +33909,7 @@
         <v>0</v>
       </c>
       <c r="Q647">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
